--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H2">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I2">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J2">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N2">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q2">
-        <v>49.760514529444</v>
+        <v>139.9911668309333</v>
       </c>
       <c r="R2">
-        <v>447.844630764996</v>
+        <v>1259.9205014784</v>
       </c>
       <c r="S2">
-        <v>0.004625303610455564</v>
+        <v>0.007305178961465699</v>
       </c>
       <c r="T2">
-        <v>0.004625303610455564</v>
+        <v>0.0073051789614657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H3">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I3">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J3">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q3">
-        <v>20.29585518876933</v>
+        <v>55.15203405448533</v>
       </c>
       <c r="R3">
-        <v>182.662696698924</v>
+        <v>496.368306490368</v>
       </c>
       <c r="S3">
-        <v>0.00188652575580486</v>
+        <v>0.002878006434101953</v>
       </c>
       <c r="T3">
-        <v>0.00188652575580486</v>
+        <v>0.002878006434101954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H4">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I4">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J4">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N4">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q4">
-        <v>21.02557448283867</v>
+        <v>64.11964963054933</v>
       </c>
       <c r="R4">
-        <v>189.230170345548</v>
+        <v>577.076846674944</v>
       </c>
       <c r="S4">
-        <v>0.001954354099570896</v>
+        <v>0.003345964792645324</v>
       </c>
       <c r="T4">
-        <v>0.001954354099570896</v>
+        <v>0.003345964792645326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H5">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I5">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J5">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N5">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q5">
-        <v>4.501365759870667</v>
+        <v>16.87623626308267</v>
       </c>
       <c r="R5">
-        <v>40.512291838836</v>
+        <v>151.886126367744</v>
       </c>
       <c r="S5">
-        <v>0.0004184077174039519</v>
+        <v>0.0008806550362330035</v>
       </c>
       <c r="T5">
-        <v>0.0004184077174039519</v>
+        <v>0.0008806550362330036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H6">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I6">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J6">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N6">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q6">
-        <v>11.903055196056</v>
+        <v>30.55503561181867</v>
       </c>
       <c r="R6">
-        <v>107.127496764504</v>
+        <v>274.995320506368</v>
       </c>
       <c r="S6">
-        <v>0.001106404238267928</v>
+        <v>0.001594457767380871</v>
       </c>
       <c r="T6">
-        <v>0.001106404238267928</v>
+        <v>0.001594457767380871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H7">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I7">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J7">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N7">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q7">
-        <v>15.472569045128</v>
+        <v>158.23066714624</v>
       </c>
       <c r="R7">
-        <v>139.253121406152</v>
+        <v>1424.07600431616</v>
       </c>
       <c r="S7">
-        <v>0.00143819512607948</v>
+        <v>0.00825697339955294</v>
       </c>
       <c r="T7">
-        <v>0.00143819512607948</v>
+        <v>0.00825697339955294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I8">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J8">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N8">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q8">
-        <v>780.11422605955</v>
+        <v>807.6436634370832</v>
       </c>
       <c r="R8">
-        <v>7021.028034535949</v>
+        <v>7268.792970933749</v>
       </c>
       <c r="S8">
-        <v>0.07251261729269143</v>
+        <v>0.04214538411289224</v>
       </c>
       <c r="T8">
-        <v>0.07251261729269141</v>
+        <v>0.04214538411289225</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I9">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J9">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q9">
         <v>318.1857244147833</v>
@@ -1013,10 +1013,10 @@
         <v>2863.67151973305</v>
       </c>
       <c r="S9">
-        <v>0.02957577094706863</v>
+        <v>0.01660393089401683</v>
       </c>
       <c r="T9">
-        <v>0.02957577094706863</v>
+        <v>0.01660393089401683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I10">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J10">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N10">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q10">
-        <v>329.6258071333166</v>
+        <v>369.9221165036832</v>
       </c>
       <c r="R10">
-        <v>2966.632264199849</v>
+        <v>3329.29904853315</v>
       </c>
       <c r="S10">
-        <v>0.03063914130009487</v>
+        <v>0.01930369839782236</v>
       </c>
       <c r="T10">
-        <v>0.03063914130009487</v>
+        <v>0.01930369839782237</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I11">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J11">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N11">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q11">
-        <v>70.56959718321666</v>
+        <v>97.36318075701666</v>
       </c>
       <c r="R11">
-        <v>635.1263746489499</v>
+        <v>876.2686268131499</v>
       </c>
       <c r="S11">
-        <v>0.006559534517007211</v>
+        <v>0.005080716703694027</v>
       </c>
       <c r="T11">
-        <v>0.006559534517007211</v>
+        <v>0.005080716703694028</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I12">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J12">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N12">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q12">
-        <v>186.6086550717</v>
+        <v>176.2795571793666</v>
       </c>
       <c r="R12">
-        <v>1679.4778956453</v>
+        <v>1586.5160146143</v>
       </c>
       <c r="S12">
-        <v>0.01734551369107467</v>
+        <v>0.009198821194185865</v>
       </c>
       <c r="T12">
-        <v>0.01734551369107467</v>
+        <v>0.009198821194185868</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I13">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J13">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N13">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q13">
-        <v>242.5692607870999</v>
+        <v>912.8718516677499</v>
       </c>
       <c r="R13">
-        <v>2183.1233470839</v>
+        <v>8215.846665009749</v>
       </c>
       <c r="S13">
-        <v>0.02254712372478048</v>
+        <v>0.04763652161976213</v>
       </c>
       <c r="T13">
-        <v>0.02254712372478048</v>
+        <v>0.04763652161976214</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H14">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I14">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J14">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N14">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q14">
-        <v>403.5711519138737</v>
+        <v>831.1579228284111</v>
       </c>
       <c r="R14">
-        <v>3632.140367224863</v>
+        <v>7480.4213054557</v>
       </c>
       <c r="S14">
-        <v>0.03751245588343814</v>
+        <v>0.04337243205376289</v>
       </c>
       <c r="T14">
-        <v>0.03751245588343814</v>
+        <v>0.04337243205376289</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H15">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I15">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J15">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>41.870491</v>
       </c>
       <c r="O15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q15">
-        <v>164.6048425154885</v>
+        <v>327.4495891576405</v>
       </c>
       <c r="R15">
-        <v>1481.443582639397</v>
+        <v>2947.046302418764</v>
       </c>
       <c r="S15">
-        <v>0.01530023110864054</v>
+        <v>0.0170873484649491</v>
       </c>
       <c r="T15">
-        <v>0.01530023110864054</v>
+        <v>0.0170873484649491</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H16">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I16">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J16">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N16">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q16">
-        <v>170.5230621895854</v>
+        <v>380.6922679898458</v>
       </c>
       <c r="R16">
-        <v>1534.707559706269</v>
+        <v>3426.230411908612</v>
       </c>
       <c r="S16">
-        <v>0.01585033721354973</v>
+        <v>0.01986571874403129</v>
       </c>
       <c r="T16">
-        <v>0.01585033721354973</v>
+        <v>0.01986571874403129</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H17">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I17">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J17">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N17">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q17">
-        <v>36.5072865920981</v>
+        <v>100.1978753025569</v>
       </c>
       <c r="R17">
-        <v>328.565579328883</v>
+        <v>901.7808777230121</v>
       </c>
       <c r="S17">
-        <v>0.003393399085181326</v>
+        <v>0.005228639972176181</v>
       </c>
       <c r="T17">
-        <v>0.003393399085181326</v>
+        <v>0.005228639972176182</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H18">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I18">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J18">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N18">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q18">
-        <v>96.53697800741799</v>
+        <v>181.4118740915849</v>
       </c>
       <c r="R18">
-        <v>868.8328020667619</v>
+        <v>1632.706866824264</v>
       </c>
       <c r="S18">
-        <v>0.00897323585060544</v>
+        <v>0.009466641617284352</v>
       </c>
       <c r="T18">
-        <v>0.00897323585060544</v>
+        <v>0.009466641617284355</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H19">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I19">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J19">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N19">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q19">
-        <v>125.4866950564673</v>
+        <v>939.4497925133534</v>
       </c>
       <c r="R19">
-        <v>1129.380255508206</v>
+        <v>8455.048132620181</v>
       </c>
       <c r="S19">
-        <v>0.01166414915917671</v>
+        <v>0.04902344208552883</v>
       </c>
       <c r="T19">
-        <v>0.01166414915917671</v>
+        <v>0.04902344208552885</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H20">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I20">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J20">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N20">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O20">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P20">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q20">
-        <v>274.431468008856</v>
+        <v>469.3249931654889</v>
       </c>
       <c r="R20">
-        <v>2469.883212079704</v>
+        <v>4223.9249384894</v>
       </c>
       <c r="S20">
-        <v>0.0255087567282469</v>
+        <v>0.02449085284290222</v>
       </c>
       <c r="T20">
-        <v>0.02550875672824689</v>
+        <v>0.02449085284290222</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H21">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I21">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J21">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>41.870491</v>
       </c>
       <c r="O21">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P21">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q21">
-        <v>111.932551072264</v>
+        <v>184.8990089277876</v>
       </c>
       <c r="R21">
-        <v>1007.392959650376</v>
+        <v>1664.091080350088</v>
       </c>
       <c r="S21">
-        <v>0.0104042741016213</v>
+        <v>0.009648611270212434</v>
       </c>
       <c r="T21">
-        <v>0.0104042741016213</v>
+        <v>0.009648611270212435</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H22">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I22">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J22">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N22">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O22">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P22">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q22">
-        <v>115.956985686728</v>
+        <v>214.9632352230782</v>
       </c>
       <c r="R22">
-        <v>1043.612871180552</v>
+        <v>1934.669117007704</v>
       </c>
       <c r="S22">
-        <v>0.01077835045771099</v>
+        <v>0.01121745706524992</v>
       </c>
       <c r="T22">
-        <v>0.01077835045771099</v>
+        <v>0.01121745706524992</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H23">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I23">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J23">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N23">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O23">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P23">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q23">
-        <v>24.825233927096</v>
+        <v>56.57813737916712</v>
       </c>
       <c r="R23">
-        <v>223.427105343864</v>
+        <v>509.2032364125041</v>
       </c>
       <c r="S23">
-        <v>0.002307537315464412</v>
+        <v>0.002952424986644796</v>
       </c>
       <c r="T23">
-        <v>0.002307537315464412</v>
+        <v>0.002952424986644797</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H24">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I24">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J24">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N24">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O24">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P24">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q24">
-        <v>65.64588292814399</v>
+        <v>102.4367622923431</v>
       </c>
       <c r="R24">
-        <v>590.8129463532961</v>
+        <v>921.9308606310881</v>
       </c>
       <c r="S24">
-        <v>0.006101868965591669</v>
+        <v>0.005345472130269683</v>
       </c>
       <c r="T24">
-        <v>0.006101868965591669</v>
+        <v>0.005345472130269684</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H25">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I25">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J25">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N25">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O25">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P25">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q25">
-        <v>85.331911799472</v>
+        <v>530.4735181375067</v>
       </c>
       <c r="R25">
-        <v>767.9872061952479</v>
+        <v>4774.26166323756</v>
       </c>
       <c r="S25">
-        <v>0.007931710583491498</v>
+        <v>0.02768177501508272</v>
       </c>
       <c r="T25">
-        <v>0.007931710583491498</v>
+        <v>0.02768177501508273</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H26">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I26">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J26">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N26">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O26">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P26">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q26">
-        <v>2440.122549367125</v>
+        <v>2946.486942345258</v>
       </c>
       <c r="R26">
-        <v>21961.10294430412</v>
+        <v>26518.38248110732</v>
       </c>
       <c r="S26">
-        <v>0.2268125188067243</v>
+        <v>0.1537569470183012</v>
       </c>
       <c r="T26">
-        <v>0.2268125188067243</v>
+        <v>0.1537569470183012</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H27">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I27">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J27">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>41.870491</v>
       </c>
       <c r="O27">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P27">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q27">
-        <v>995.2544577388068</v>
+        <v>1160.821442266984</v>
       </c>
       <c r="R27">
-        <v>8957.290119649262</v>
+        <v>10447.39298040286</v>
       </c>
       <c r="S27">
-        <v>0.0925101776023121</v>
+        <v>0.06057531035731925</v>
       </c>
       <c r="T27">
-        <v>0.09251017760231213</v>
+        <v>0.06057531035731926</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H28">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I28">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J28">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N28">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O28">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P28">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q28">
-        <v>1031.037940305355</v>
+        <v>1349.568795382166</v>
       </c>
       <c r="R28">
-        <v>9279.341462748196</v>
+        <v>12146.1191584395</v>
       </c>
       <c r="S28">
-        <v>0.09583629817551871</v>
+        <v>0.0704247403193866</v>
       </c>
       <c r="T28">
-        <v>0.09583629817551872</v>
+        <v>0.07042474031938663</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H29">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I29">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J29">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N29">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O29">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P29">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q29">
-        <v>220.7349380824865</v>
+        <v>355.2053383850997</v>
       </c>
       <c r="R29">
-        <v>1986.614442742379</v>
+        <v>3196.848045465897</v>
       </c>
       <c r="S29">
-        <v>0.020517595441311</v>
+        <v>0.01853573067295674</v>
       </c>
       <c r="T29">
-        <v>0.02051759544131101</v>
+        <v>0.01853573067295674</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H30">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I30">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J30">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N30">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O30">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P30">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q30">
-        <v>583.6939924138339</v>
+        <v>643.1121012216926</v>
       </c>
       <c r="R30">
-        <v>5253.245931724507</v>
+        <v>5788.008910995233</v>
       </c>
       <c r="S30">
-        <v>0.05425510479630272</v>
+        <v>0.03355961021013932</v>
       </c>
       <c r="T30">
-        <v>0.05425510479630273</v>
+        <v>0.03355961021013933</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H31">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I31">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J31">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N31">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O31">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P31">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q31">
-        <v>758.7334050036086</v>
+        <v>3330.385803470245</v>
       </c>
       <c r="R31">
-        <v>6828.600645032478</v>
+        <v>29973.4722312322</v>
       </c>
       <c r="S31">
-        <v>0.07052524256878188</v>
+        <v>0.173789995867789</v>
       </c>
       <c r="T31">
-        <v>0.0705252425687819</v>
+        <v>0.1737899958677891</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H32">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I32">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J32">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N32">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O32">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P32">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q32">
-        <v>405.8092529203973</v>
+        <v>575.5532939708805</v>
       </c>
       <c r="R32">
-        <v>3652.283276283576</v>
+        <v>5179.979645737925</v>
       </c>
       <c r="S32">
-        <v>0.03772049024087857</v>
+        <v>0.0300341793664463</v>
       </c>
       <c r="T32">
-        <v>0.03772049024087856</v>
+        <v>0.0300341793664463</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H33">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I33">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J33">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>41.870491</v>
       </c>
       <c r="O33">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P33">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q33">
-        <v>165.5176983079938</v>
+        <v>226.7495556172412</v>
       </c>
       <c r="R33">
-        <v>1489.659284771944</v>
+        <v>2040.746000555171</v>
       </c>
       <c r="S33">
-        <v>0.0153850822246876</v>
+        <v>0.0118325042980551</v>
       </c>
       <c r="T33">
-        <v>0.0153850822246876</v>
+        <v>0.0118325042980551</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H34">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I34">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J34">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N34">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O34">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P34">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q34">
-        <v>171.4687388944542</v>
+        <v>263.6186010056659</v>
       </c>
       <c r="R34">
-        <v>1543.218650050088</v>
+        <v>2372.567409050993</v>
       </c>
       <c r="S34">
-        <v>0.01593823907547209</v>
+        <v>0.01375644693527962</v>
       </c>
       <c r="T34">
-        <v>0.01593823907547209</v>
+        <v>0.01375644693527962</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H35">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I35">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J35">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N35">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O35">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P35">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q35">
-        <v>36.70974654117955</v>
+        <v>69.38418752362145</v>
       </c>
       <c r="R35">
-        <v>330.3877188706159</v>
+        <v>624.457687712593</v>
       </c>
       <c r="S35">
-        <v>0.003412217996969405</v>
+        <v>0.003620684921985738</v>
       </c>
       <c r="T35">
-        <v>0.003412217996969405</v>
+        <v>0.003620684921985739</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H36">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I36">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J36">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N36">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O36">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P36">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q36">
-        <v>97.07234706593597</v>
+        <v>125.6225788518384</v>
       </c>
       <c r="R36">
-        <v>873.6511235934239</v>
+        <v>1130.603209666546</v>
       </c>
       <c r="S36">
-        <v>0.009022999090851361</v>
+        <v>0.006555380892151663</v>
       </c>
       <c r="T36">
-        <v>0.009022999090851361</v>
+        <v>0.006555380892151665</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H37">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I37">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J37">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N37">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O37">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P37">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q37">
-        <v>126.1826117422346</v>
+        <v>650.5423430980716</v>
       </c>
       <c r="R37">
-        <v>1135.643505680112</v>
+        <v>5854.881087882645</v>
       </c>
       <c r="S37">
-        <v>0.01172883550717159</v>
+        <v>0.03394734357834161</v>
       </c>
       <c r="T37">
-        <v>0.01172883550717159</v>
+        <v>0.03394734357834162</v>
       </c>
     </row>
   </sheetData>
